--- a/artfynd/A 29360-2021.xlsx
+++ b/artfynd/A 29360-2021.xlsx
@@ -1616,10 +1616,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66548316</v>
+        <v>66548257</v>
       </c>
       <c r="B10" t="n">
-        <v>90841</v>
+        <v>78569</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,34 +1632,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2079</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Snödberget, Ås lm</t>
+          <t>Stennäs, Ås lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>533945.4946495831</v>
+        <v>533537.1499691079</v>
       </c>
       <c r="R10" t="n">
-        <v>7234239.305379331</v>
+        <v>7234764.850991403</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>26717</t>
+          <t>26661</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66548257</v>
+        <v>66548276</v>
       </c>
       <c r="B11" t="n">
-        <v>78569</v>
+        <v>89410</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,21 +1749,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>533537.1499691079</v>
+        <v>534462.4285375987</v>
       </c>
       <c r="R11" t="n">
-        <v>7234764.850991403</v>
+        <v>7235038.494590377</v>
       </c>
       <c r="S11" t="n">
         <v>50</v>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>26661</t>
+          <t>26678</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>66548276</v>
+        <v>66548269</v>
       </c>
       <c r="B12" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1866,21 +1866,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1890,10 +1890,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>534462.4285375987</v>
+        <v>534239.5077748725</v>
       </c>
       <c r="R12" t="n">
-        <v>7235038.494590377</v>
+        <v>7235034.639651638</v>
       </c>
       <c r="S12" t="n">
         <v>50</v>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>26678</t>
+          <t>26672</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66548269</v>
+        <v>66548277</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>90074</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1979,25 +1979,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2007,10 +2007,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>534239.5077748725</v>
+        <v>534462.4285375987</v>
       </c>
       <c r="R13" t="n">
-        <v>7235034.639651638</v>
+        <v>7235038.494590377</v>
       </c>
       <c r="S13" t="n">
         <v>50</v>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>26672</t>
+          <t>26679</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>66548277</v>
+        <v>66548256</v>
       </c>
       <c r="B14" t="n">
-        <v>90074</v>
+        <v>89388</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2096,25 +2096,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>534462.4285375987</v>
+        <v>533538.128031794</v>
       </c>
       <c r="R14" t="n">
-        <v>7235038.494590377</v>
+        <v>7234752.698405381</v>
       </c>
       <c r="S14" t="n">
         <v>50</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>26679</t>
+          <t>26660</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66548256</v>
+        <v>66548261</v>
       </c>
       <c r="B15" t="n">
-        <v>89388</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2217,21 +2217,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2241,10 +2241,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>533538.128031794</v>
+        <v>533506.7280844542</v>
       </c>
       <c r="R15" t="n">
-        <v>7234752.698405381</v>
+        <v>7234781.282651466</v>
       </c>
       <c r="S15" t="n">
         <v>50</v>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>26660</t>
+          <t>26665</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66548261</v>
+        <v>66548267</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2330,25 +2330,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>533506.7280844542</v>
+        <v>533478.6829671962</v>
       </c>
       <c r="R16" t="n">
-        <v>7234781.282651466</v>
+        <v>7234810.324452452</v>
       </c>
       <c r="S16" t="n">
         <v>50</v>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>26665</t>
+          <t>26671</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2435,10 +2435,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>66548267</v>
+        <v>66548260</v>
       </c>
       <c r="B17" t="n">
-        <v>78596</v>
+        <v>89410</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2447,25 +2447,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>533478.6829671962</v>
+        <v>533506.7280844542</v>
       </c>
       <c r="R17" t="n">
-        <v>7234810.324452452</v>
+        <v>7234781.282651466</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>26671</t>
+          <t>26664</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>66548260</v>
+        <v>66548316</v>
       </c>
       <c r="B18" t="n">
-        <v>89410</v>
+        <v>90841</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2568,34 +2568,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>2079</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Stennäs, Ås lm</t>
+          <t>Snödberget, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>533506.7280844542</v>
+        <v>533945.4946495831</v>
       </c>
       <c r="R18" t="n">
-        <v>7234781.282651466</v>
+        <v>7234239.305379331</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>26664</t>
+          <t>26717</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
